--- a/Employee_Reports35/Trevin Christopher Neydorf Q0531.xlsx
+++ b/Employee_Reports35/Trevin Christopher Neydorf Q0531.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">

--- a/Employee_Reports35/Trevin Christopher Neydorf Q0531.xlsx
+++ b/Employee_Reports35/Trevin Christopher Neydorf Q0531.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
